--- a/examples/financial_transactions/schema_and_data.xlsx
+++ b/examples/financial_transactions/schema_and_data.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>'!!_Schema'!A1</t>
   </si>
@@ -94,10 +94,10 @@
     <t>'!!Transaction'!A1</t>
   </si>
   <si>
-    <t>!!!ObjTables objTablesVersion='0.0.9' date='2020-04-27 01:05:06'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-04-27 01:05:06' objTablesVersion='0.0.9'</t>
+    <t>!!!ObjTables objTablesVersion='1.0.0' date='2020-03-11 23:55:18'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-03-11 23:55:18' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -121,7 +121,7 @@
     <t>Stores transactions</t>
   </si>
   <si>
-    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-04-27 01:05:06' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-03-11 23:55:18' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -157,12 +157,18 @@
     <t>PositiveFloat</t>
   </si>
   <si>
+    <t>Amount</t>
+  </si>
+  <si>
     <t>category</t>
   </si>
   <si>
     <t>String</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -172,7 +178,10 @@
     <t>payee</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Transaction' name='Transaction' description='Stores transactions' date='2020-04-27 01:05:06' objTablesVersion='0.0.9'</t>
+    <t>Payee</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Transaction' name='Transaction' description='Stores transactions' date='2020-03-11 23:55:18' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Amount</t>
@@ -722,13 +731,15 @@
       <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="15.01" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>21</v>
@@ -737,15 +748,17 @@
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="15.01" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>21</v>
@@ -754,15 +767,17 @@
         <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="15.01" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>21</v>
@@ -771,9 +786,11 @@
         <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -804,20 +821,20 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.01" customHeight="1">
@@ -825,10 +842,10 @@
         <v>100</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.01" customHeight="1">
@@ -836,10 +853,10 @@
         <v>50</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.01" customHeight="1">
@@ -847,10 +864,10 @@
         <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.01" customHeight="1">
@@ -858,10 +875,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/examples/financial_transactions/schema_and_data.xlsx
+++ b/examples/financial_transactions/schema_and_data.xlsx
@@ -20,71 +20,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a float or blank.
-Value must be positive.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 255 characters.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a date.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 255 characters.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
@@ -94,10 +29,10 @@
     <t>'!!Transaction'!A1</t>
   </si>
   <si>
-    <t>!!!ObjTables objTablesVersion='1.0.0' date='2020-03-11 23:55:18'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-03-11 23:55:18' objTablesVersion='1.0.0'</t>
+    <t>!!!ObjTables objTablesVersion='1.0.1' date='2020-03-11 23:55:18'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-03-11 23:55:18' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -121,7 +56,7 @@
     <t>Stores transactions</t>
   </si>
   <si>
-    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-03-11 23:55:18' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-03-11 23:55:18' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -181,7 +116,7 @@
     <t>Payee</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Transaction' name='Transaction' description='Stores transactions' date='2020-03-11 23:55:18' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Transaction' name='Transaction' description='Stores transactions' date='2020-03-11 23:55:18' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!Amount</t>
@@ -212,19 +147,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -272,16 +201,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -593,47 +521,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>4</v>
       </c>
     </row>
@@ -664,135 +592,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
@@ -806,7 +734,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -819,65 +747,65 @@
     <col min="4" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A3" s="4">
+    <row r="3" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A3" s="3">
         <v>100</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A4" s="4">
+    <row r="4" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A4" s="3">
         <v>50</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A5" s="4">
+    <row r="5" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A5" s="3">
         <v>30</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A6" s="4">
+    <row r="6" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A6" s="3">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -900,6 +828,5 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>